--- a/tests/fixtures_files/fs-MartinPerez.xlsx
+++ b/tests/fixtures_files/fs-MartinPerez.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t xml:space="preserve">offset=0 count=75 +surname:martin~ +father_givenname:vicente~ +mother_givenname:josefa~ +mother_surname:perez~ +record_country:Spain acl=(CdsPrmAnyone+or+CdsPrmRegisteredPatron) </t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>SANTA MARIA DE LA ASUNCION, TUDELA DE DUERO, VALLADOLID, SPAIN</t>
-  </si>
-  <si>
-    <t>1804</t>
   </si>
   <si>
     <t>Tudela de Duero, Valladolid, Spain</t>
@@ -203,7 +200,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -260,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -547,7 +544,7 @@
   <dimension ref="A2:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -668,25 +665,25 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
+      <c r="P7" t="s">
         <v>35</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="V7" t="s">
         <v>37</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>38</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -694,40 +691,40 @@
         <v>8.2100000381469727</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s">
         <v>45</v>
       </c>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="V8" t="s">
         <v>47</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="X8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -735,45 +732,45 @@
         <v>8.2100000381469727</v>
       </c>
       <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>52</v>
       </c>
-      <c r="K9" t="s">
+      <c r="P9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" t="s">
         <v>53</v>
       </c>
-      <c r="P9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>54</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>55</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>56</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="url"/>
+    <hyperlink ref="A2" r:id="rId1" location="&amp;offset=0&amp;count=75&amp;query=+surname:martin~ +father_givenname:vicente~ +mother_givenname:josefa~ +mother_surname:perez~ +record_country:Spain &amp;acl=(CdsPrmAnyone+or+CdsPrmRegisteredPatron)" display="url"/>
     <hyperlink ref="Z6" r:id="rId2" display="url"/>
     <hyperlink ref="Z7" r:id="rId3" display="url"/>
     <hyperlink ref="Z8" r:id="rId4" display="url"/>
